--- a/table/table.xlsx
+++ b/table/table.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryoga/Documents/thesis_2019/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C34050-9FCE-DD4D-99CA-CB751F0A3EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEFBC0D-DCA8-A34A-872F-6DB4D7F2DDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="2" xr2:uid="{EBFA7A95-0B35-C04F-83D0-0C50E25A3D19}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="26340" windowHeight="14900" activeTab="3" xr2:uid="{EBFA7A95-0B35-C04F-83D0-0C50E25A3D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>測定日時</t>
     <rPh sb="0" eb="4">
@@ -191,6 +192,48 @@
   <si>
     <t>RADAR</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能・性能</t>
+  </si>
+  <si>
+    <t>LiDAR</t>
+  </si>
+  <si>
+    <t>レーダー</t>
+  </si>
+  <si>
+    <t>可視カメラ</t>
+  </si>
+  <si>
+    <t>近傍の物体検知</t>
+  </si>
+  <si>
+    <t>測定距離</t>
+  </si>
+  <si>
+    <t>分解能</t>
+  </si>
+  <si>
+    <t>暗い場所での動作</t>
+  </si>
+  <si>
+    <t>明るい場所での動作</t>
+  </si>
+  <si>
+    <t>雪・霧・雨の際の動作</t>
+  </si>
+  <si>
+    <t>色彩/コントラスト</t>
+  </si>
+  <si>
+    <t>検出速度</t>
+  </si>
+  <si>
+    <t>センサーの寸法</t>
+  </si>
+  <si>
+    <t>価格</t>
   </si>
 </sst>
 </file>
@@ -198,7 +241,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.00000000"/>
+    <numFmt numFmtId="176" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -225,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -266,13 +309,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -296,6 +350,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A234D91-F18F-744D-90B2-D880546EC6AD}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -814,4 +874,183 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F456A20-51B3-0D4C-B8B4-799D01563B2C}">
+  <dimension ref="B1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="B2:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="2:5" ht="21" thickBot="1">
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="21" thickTop="1">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>